--- a/Week3/docs/SE1601_SWP391_OnlineShop_WeeklyReport_W3.xlsx
+++ b/Week3/docs/SE1601_SWP391_OnlineShop_WeeklyReport_W3.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -313,6 +313,35 @@
     <t>Notes (Work Item in Details)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>| Quy t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c nhóm |</t>
+    </r>
+  </si>
+  <si>
     <t>Database</t>
   </si>
   <si>
@@ -322,15 +351,393 @@
     <t xml:space="preserve">Ready for the project </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 . T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i trong nhóm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> code front - end , back - end c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a màn hình </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c giao .</t>
+    </r>
+  </si>
+  <si>
     <t>Created working environment in Github for group</t>
   </si>
   <si>
     <t xml:space="preserve">Completed </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> có technical Leadder . làm tài li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n chung là file Backlog , Weekly Meeting , v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ch ra khung ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng trình c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a nhóm</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Chi có TL design databasse table diagram ( 20-25 tables )</t>
+  </si>
+  <si>
     <t>II. Team Contribution</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 . M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i thành viên 1 ngày code 2 gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> , vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t docs 30 phút , h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p nhóm hàng ngày 10 phút .</t>
+    </r>
+  </si>
+  <si>
     <t>Project Task</t>
   </si>
   <si>
@@ -338,6 +745,9 @@
   </si>
   <si>
     <t>Notes (Task Details, etc.)</t>
+  </si>
+  <si>
+    <t>5. Ai không code được thì kêu lên với nhóm , nhóm cùng giúp đỡ để code dc . Phải ghi vấn đề gặp phải đê nêu ra phương hướng giải quyết.</t>
   </si>
   <si>
     <t xml:space="preserve">Complete the Architecture Design section </t>
@@ -416,10 +826,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,6 +861,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="var(--comment-footer-background"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -616,6 +1044,74 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +1127,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -646,108 +1172,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -758,18 +1198,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +1224,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFEF2CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -796,19 +1242,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,67 +1392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,86 +1414,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -987,6 +1433,55 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1054,11 +1549,40 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1073,17 +1597,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,8 +1641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,32 +1663,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,133 +1697,133 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
@@ -1309,28 +1835,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="32" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,24 +1879,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="32" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1376,29 +1907,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,312 +2241,312 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" ht="27.6" spans="7:12">
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" ht="18" spans="7:7">
-      <c r="G4" s="20"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" ht="22.8" spans="7:11">
-      <c r="G5" s="21"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="34"/>
+      <c r="G5" s="31"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" ht="18" spans="7:7">
-      <c r="G6" s="20"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="28.2" spans="1:18">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" ht="28.2" spans="1:18">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="10" ht="27.6" spans="7:12">
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="33" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" ht="18" spans="7:7">
-      <c r="G11" s="20"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" ht="22.8" spans="7:11">
-      <c r="G12" s="21"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35" t="s">
+      <c r="G12" s="31"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" ht="18" spans="7:7">
-      <c r="G13" s="20"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" ht="28.2" spans="2:18">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="36" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" ht="28.2" spans="2:18">
-      <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="37" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="49"/>
     </row>
     <row r="17" ht="21" spans="3:14">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" ht="21" spans="3:14">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" ht="21" spans="3:14">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" ht="21" spans="3:14">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" ht="21" spans="3:14">
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" ht="21" spans="3:14">
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
     </row>
     <row r="23" ht="21" spans="3:14">
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
     </row>
     <row r="24" ht="21" spans="3:14">
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" ht="21" spans="3:14">
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" ht="21" spans="3:14">
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
     </row>
     <row r="27" ht="21" spans="3:14">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
     </row>
     <row r="28" ht="21" spans="3:14">
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,15 +2559,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
@@ -2060,7 +2600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="16.2" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -2073,188 +2613,242 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" ht="16.2" spans="1:19">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="7">
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" ht="28.8" spans="1:19">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:1">
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" ht="16.2" spans="6:19">
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" ht="16.2" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
+      <c r="B11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
+      <c r="D15" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:4">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="16.35" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:6">
+      <c r="A19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>40</v>
+      <c r="C19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A20" s="11">
+      <c r="A20" s="18">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>45</v>
+      <c r="B20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>49</v>
+      <c r="B23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="16">
+      <c r="A24" s="23">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
